--- a/public/preprocessing/@TGB_DrZMajdi.xlsx
+++ b/public/preprocessing/@TGB_DrZMajdi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14050</v>
+        <v>30148</v>
       </c>
       <c r="C2" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['maka', 'islam', 'memperkaya', 'khazanah', 'kebaikan', 'yang', 'sudah', 'ada', 'sekaligus', 'membangun', 'tradisitradisi', 'baru', 'yang', 'lebih', 'baik']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['islam', 'memperkaya', 'khazanah', 'kebaikan', 'membangun', 'tradisitradisi']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['islam', 'kaya', 'khazanah', 'baik', 'bangun', 'tradisitradisi']</t>
         </is>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14051</v>
+        <v>30149</v>
       </c>
       <c r="C3" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['bakda', 'maghrib', 'kemarin', 'saya', 'berkesempatan', 'menyapa', 'jamaah', 'yang', 'hadir', 'saya', 'sampaikan', 'bahwa', 'islam', 'tidak', 'datang', 'di']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['bakda', 'maghrib', 'kemarin', 'berkesempatan', 'menyapa', 'jamaah', 'hadir', 'islam']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['bakda', 'maghrib', 'kemarin', 'sempat', 'sapa', 'jamaah', 'hadir', 'islam']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14052</v>
+        <v>30150</v>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['dulu', 'lokasi', 'ini', 'tempat', 'prostitusi', 'kang', 'dedi', 'mulyadi', 'mengubahnya', 'menjadi', 'masjid', 'megah', 'masjid', 'tajug', 'gede', 'namanya']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['lokasi', 'prostitusi', 'kang', 'dedi', 'mulyadi', 'mengubahnya', 'masjid', 'megah', 'masjid', 'tajug', 'gede', 'namanya']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['lokasi', 'prostitusi', 'kang', 'dedi', 'mulyadi', 'ubah', 'masjid', 'megah', 'masjid', 'tajug', 'gede', 'nama']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14053</v>
+        <v>30151</v>
       </c>
       <c r="C5" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,15 +620,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['sore', 'ini', 'di', 'perpustakaan', 'rumah', 'saya', 'membaca', 'bunga', 'rampai', 'tulisan', 'almarhum', 'natsir', 'pahlawan', 'nasional', 'founding']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['sore', 'perpustakaan', 'rumah', 'membaca', 'bunga', 'rampai', 'tulisan', 'almarhum', 'natsir', 'pahlawan', 'nasional', 'founding']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['sore', 'pustaka', 'rumah', 'baca', 'bunga', 'rampai', 'tulis', 'almarhum', 'natsir', 'pahlawan', 'nasional', 'founding']</t>
         </is>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14054</v>
+        <v>30152</v>
       </c>
       <c r="C6" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,15 +661,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['gowes', 'lagi', 'dua', 'nikmat', 'yang', 'sering', 'terperdaya', 'padanya', 'manusia', 'kesehatan', 'dan', 'kesempatan', 'demikian', 'rasul']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>['gowes', 'nikmat', 'terperdaya', 'manusia', 'kesehatan', 'kesempatan', 'rasul']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['gowes', 'nikmat', 'daya', 'manusia', 'sehat', 'sempat', 'rasul']</t>
         </is>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14055</v>
+        <v>30153</v>
       </c>
       <c r="C7" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['semalam', 'bakda', 'maghrib', 'silaturahim', 'spontan', 'di', 'masjid', 'jamiyatul', 'qudsiyyah', 'desa', 'pringgasela', 'saya', 'sampaikan', 'ti']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['semalam', 'bakda', 'maghrib', 'silaturahim', 'spontan', 'masjid', 'jamiyatul', 'qudsiyyah', 'desa', 'pringgasela', 'ti']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['malam', 'bakda', 'maghrib', 'silaturahim', 'spontan', 'masjid', 'jamiyatul', 'qudsiyyah', 'desa', 'pringgasela', 'ti']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14056</v>
+        <v>30154</v>
       </c>
       <c r="C8" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,15 +743,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['siang', 'ini', 'hadir', 'di', 'konferensi', 'anak', 'muda', 'indonesia', 'di', 'kupang', 'ntt', 'topiknya', 'tentang', 'hoaks', 'dan', 'cara', 'menyikapinya']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['siang', 'hadir', 'konferensi', 'anak', 'muda', 'indonesia', 'kupang', 'ntt', 'topiknya', 'hoaks', 'menyikapinya']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['siang', 'hadir', 'konferensi', 'anak', 'muda', 'indonesia', 'kupang', 'ntt', 'topik', 'hoaks', 'sikap']</t>
         </is>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14057</v>
+        <v>30155</v>
       </c>
       <c r="C9" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['semalam', 'di', 'citra', 'indah', 'city', 'bersama', 'sayid', 'seif', 'alwy', 'ahbaburrosulindonesia', 'dalam', 'sebuah', 'hadisnya', 'rasul', 'yang']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['semalam', 'citra', 'indah', 'city', 'sayyid', 'seif', 'alwy', 'ahbaburrosulindonesia', 'hadisnya', 'rasul']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['malam', 'citra', 'indah', 'city', 'sayyid', 'seif', 'alwy', 'ahbaburrosulindonesia', 'hadis', 'rasul']</t>
+          <t>['semalam', 'citra', 'indah', 'city', 'sayid', 'seif', 'alwy', 'ahbaburrosulindonesia', 'hadisnya', 'rasul']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['malam', 'citra', 'indah', 'city', 'sayid', 'seif', 'alwy', 'ahbaburrosulindonesia', 'hadis', 'rasul']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14058</v>
+        <v>30156</v>
       </c>
       <c r="C10" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['dalam', 'kajian', 'tafsir', 'di', 'masjid', 'hubbul', 'wathan', 'ic', 'mataram', 'saya', 'berbagi', 'dengan', 'para', 'jamaah', 'tentang', 'kisah', 'perpindahan']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['kajian', 'tafsir', 'masjid', 'hubbul', 'wathan', 'ic', 'mataram', 'berbagi', 'jamaah', 'kisah', 'perpindahan']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['kaji', 'tafsir', 'masjid', 'hubbul', 'wathan', 'ic', 'mataram', 'bagi', 'jamaah', 'kisah', 'pindah']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14059</v>
+        <v>30157</v>
       </c>
       <c r="C11" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,15 +866,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['jumpa', 'di', 'bandara', 'dengan', 'sahabat', 'lama', 'sandiaga', 'uno', 'sandiuno', 'kami', 'berkawan', 'lama', 'beberapa', 'kali', 'beliau', 'ke', 'lombok']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>['jumpa', 'bandara', 'sahabat', 'sandiaga', 'uno', 'sandiuno', 'berkawan', 'kali', 'beliau', 'lombok']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['jumpa', 'bandara', 'sahabat', 'sandiaga', 'uno', 'sandiuno', 'kawan', 'kali', 'beliau', 'lombok']</t>
         </is>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14060</v>
+        <v>30158</v>
       </c>
       <c r="C12" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['hari', 'kedua', 'di', 'tanah', 'banjar', 'bersama', 'mardani', 'maming', 'mardanimaming', 'melanjutkan', 'ziarah', 'ke', 'para', 'guru', 'guru', 'dan']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['tanah', 'banjar', 'mardani', 'maming', 'mardanimaming', 'melanjutkan', 'ziarah', 'guru', 'guru']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['tanah', 'banjar', 'mardani', 'maming', 'mardanimaming', 'lanjut', 'ziarah', 'guru', 'guru']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14061</v>
+        <v>30159</v>
       </c>
       <c r="C13" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['kemarin', 'ziarah', 'ke', 'makam', 'guru', 'sekumpul', 'salah', 'satu', 'jangkar', 'ahlusunah', 'waljamaah', 'poros', 'keberkahan', 'tanah', 'banjar', 'dan']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['kemarin', 'ziarah', 'makam', 'guru', 'sekumpul', 'salah', 'jangkar', 'ahlussunnah', 'waljamaah', 'poros', 'keberkahan', 'tanah', 'banjar']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['kemarin', 'ziarah', 'makam', 'guru', 'kumpul', 'salah', 'jangkar', 'ahlussunnah', 'waljamaah', 'poros', 'berkah', 'tanah', 'banjar']</t>
+          <t>['kemarin', 'ziarah', 'makam', 'guru', 'sekumpul', 'salah', 'jangkar', 'ahlusunah', 'waljamaah', 'poros', 'keberkahan', 'tanah', 'banjar']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['kemarin', 'ziarah', 'makam', 'guru', 'kumpul', 'salah', 'jangkar', 'ahlusunah', 'waljamaah', 'poros', 'berkah', 'tanah', 'banjar']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14062</v>
+        <v>30160</v>
       </c>
       <c r="C14" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,17 +989,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['siang', 'tadi', 'setiba', 'dari', 'bali', 'bersama', 'mardani', 'maming', 'mardanimaming', 'dan', 'beberapa', 'sahabat', 'bersilaturahim', 'kepada']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['siang', 'bali', 'mardani', 'maming', 'mardanimaming', 'sahabat', 'bersilaturahim', 'kepad']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['siang', 'bal', 'mardani', 'maming', 'mardanimaming', 'sahabat', 'bersilaturahim', 'kepad']</t>
+          <t>['siang', 'bali', 'mardani', 'maming', 'mardanimaming', 'sahabat', 'bersilaturahim']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['siang', 'bal', 'mardani', 'maming', 'mardanimaming', 'sahabat', 'bersilaturahim']</t>
         </is>
       </c>
     </row>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14063</v>
+        <v>30161</v>
       </c>
       <c r="C15" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['pagi', 'tadi', 'mengisi', 'di', 'evaluasi', 'tahunan', 'nasional', 'badan, pengawas, obat, dan, makanan', 'badan', 'pengawasan', 'obat', 'dan', 'makanan', 'yang', 'dilaksanakan', 'di', 'bali']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['pagi', 'mengisi', 'evaluasi', 'tahunan', 'nasional', 'bpom', 'badan', 'pengawasan', 'obat', 'makanan', 'dilaksanakan', 'bali']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['pagi', 'isi', 'evaluasi', 'tahun', 'nasional', 'bpom', 'badan', 'awas', 'obat', 'makan', 'laksana', 'bal']</t>
+          <t>['pagi', 'mengisi', 'evaluasi', 'tahunan', 'nasional', 'badan, pengawas, obat, dan, makanan', 'badan', 'pengawasan', 'obat', 'makanan', 'dilaksanakan', 'bali']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['pagi', 'isi', 'evaluasi', 'tahun', 'nasional', 'badan awas obat dan makan', 'badan', 'awas', 'obat', 'makan', 'laksana', 'bal']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14064</v>
+        <v>30162</v>
       </c>
       <c r="C16" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,17 +1071,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['bagi', 'saya', 'semua', 'guru', 'saya', 'adalah', 'orang', 'hebat', 'ada', 'ustaz', 'sahar', 'yang', 'mengajar', 'matematika', 'dengan', 'ilustrasi', 'ilmu', 'war']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['guru', 'orang', 'hebat', 'ustadz', 'sahar', 'mengajar', 'matematika', 'ilustrasi', 'ilmu', 'war']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['guru', 'orang', 'hebat', 'ustadz', 'sahar', 'ajar', 'matematika', 'ilustrasi', 'ilmu', 'war']</t>
+          <t>['guru', 'orang', 'hebat', 'ustaz', 'sahar', 'mengajar', 'matematika', 'ilustrasi', 'ilmu', 'war']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['guru', 'orang', 'hebat', 'ustaz', 'sahar', 'ajar', 'matematika', 'ilustrasi', 'ilmu', 'war']</t>
         </is>
       </c>
     </row>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14065</v>
+        <v>30163</v>
       </c>
       <c r="C17" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,15 +1112,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['isu', 'palestina', 'bukan', 'sembarang', 'isu', 'bagi', 'kita', 'penjajahan', 'israel', 'terhadap', 'palestina', 'adalah', 'wajah', 'buruk', 'kolonial']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['isu', 'palestina', 'sembarang', 'isu', 'penjajahan', 'israel', 'palestina', 'wajah', 'buruk', 'kolonial']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['isu', 'palestina', 'sembarang', 'isu', 'jajah', 'israel', 'palestina', 'wajah', 'buruk', 'kolonial']</t>
         </is>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14066</v>
+        <v>30164</v>
       </c>
       <c r="C18" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,15 +1153,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['imam', 'bushiri', 'merangkai', 'bait', 'qasidah', 'berisi', 'pujian', 'perjalanan', 'dan', 'tawassul', 'kepada', 'nabi', 'saw', 'qasidah', 'itu', 'dikenal']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['imam', 'bushiri', 'merangkai', 'bait', 'qasidah', 'berisi', 'pujian', 'perjalanan', 'tawassul', 'nabi', 'saw', 'qasidah', 'dikenal']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['imam', 'bushiri', 'rangkai', 'bait', 'qasidah', 'isi', 'puji', 'jalan', 'tawassul', 'nabi', 'saw', 'qasidah', 'kenal']</t>
         </is>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14067</v>
+        <v>30165</v>
       </c>
       <c r="C19" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,15 +1194,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['dari', 'kendarikonawe', 'di', 'bawah', 'helikopter', 'terhampar', 'hutan', 'lebat', 'sampai', 'sesaat', 'sebelum', 'mendarat', 'rumahrumah', 'hampir']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['kendarikonawe', 'helikopter', 'terhampar', 'hutan', 'lebat', 'mendarat', 'rumahrumah']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['kendarikonawe', 'helikopter', 'hampar', 'hutan', 'lebat', 'darat', 'rumahrumah']</t>
         </is>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14068</v>
+        <v>30166</v>
       </c>
       <c r="C20" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['tidak', 'ada', 'yang', 'perlu', 'dikhawatirkan', 'dari', 'peraturan', 'yang', 'terinspirasi', 'dari', 'ajaran', 'agama', 'selama', 'telah', 'dibahas', 'dan', 'diskualifikasi']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['dikhawatirkan', 'peraturan', 'terinspirasi', 'ajaran', 'agama', 'dibahas', 'dis']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['khawatir', 'atur', 'inspirasi', 'ajar', 'agama', 'bahas', 'dis']</t>
+          <t>['dikhawatirkan', 'peraturan', 'terinspirasi', 'ajaran', 'agama', 'dibahas', 'diskualifikasi']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['khawatir', 'atur', 'inspirasi', 'ajar', 'agama', 'bahas', 'diskualifikasi']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14069</v>
+        <v>30167</v>
       </c>
       <c r="C21" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,17 +1276,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rapeners', 'pakpahan', 'namanya', 'anak', 'muda', 'asal', 'medan', 'yang', 'tinggal', 'di', 'yoyakarta', 'dan', 'berwirausaha', 'sejak', 'tiga', 'tahun', 'lalu']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['rapeners', 'pakpahan', 'namanya', 'anak', 'muda', 'medan', 'tinggal', 'jogja', 'berwirausaha']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['rapeners', 'pakpahan', 'nama', 'anak', 'muda', 'medan', 'tinggal', 'jogja', 'berwirausaha']</t>
+          <t>['rapeners', 'pakpahan', 'namanya', 'anak', 'muda', 'medan', 'tinggal', 'yoyakarta', 'berwirausaha']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['rapeners', 'pakpahan', 'nama', 'anak', 'muda', 'medan', 'tinggal', 'yoyakarta', 'berwirausaha']</t>
         </is>
       </c>
     </row>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14070</v>
+        <v>30168</v>
       </c>
       <c r="C22" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,15 +1317,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['semalam', 'shalawatan', 'bersama', 'habib', 'syech', 'abdul', 'qodir', 'assegaf', 'dan', 'mardanimaming', 'di', 'lombok', 'utara']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['semalam', 'shalawatan', 'habib', 'syech', 'abdul', 'qodir', 'assegaf', 'mardanimaming', 'lombok', 'utara']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['malam', 'shalawatan', 'habib', 'syech', 'abdul', 'qodir', 'assegaf', 'mardanimaming', 'lombok', 'utara']</t>
         </is>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14071</v>
+        <v>30169</v>
       </c>
       <c r="C23" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['bersyukur', 'dapat', 'melanjutkan', 'kajian', 'tafsir', 'bakda', 'jumat', 'di', 'masjid', 'hubbul', 'wathan', 'islamic', 'centre', 'mataram', 'kemarin', 'menga']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['bersyukur', 'melanjutkan', 'kajian', 'tafsir', 'bakda', 'jumat', 'masjid', 'hubbul', 'wathan', 'islamic', 'centre', 'mataram', 'kemarin', 'menga']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['syukur', 'lanjut', 'kaji', 'tafsir', 'bakda', 'jumat', 'masjid', 'hubbul', 'wathan', 'islamic', 'centre', 'mataram', 'kemarin', 'menga']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14072</v>
+        <v>30170</v>
       </c>
       <c r="C24" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,15 +1399,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['bersyukur', 'dapat', 'melanjutkan', 'kajian', 'tafsir', 'bakda', 'jumat', 'di', 'masjid', 'hubbul', 'wathan', 'islamic', 'centre', 'mataram', 'kemarin', 'menga']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['bersyukur', 'melanjutkan', 'kajian', 'tafsir', 'bakda', 'jumat', 'masjid', 'hubbul', 'wathan', 'islamic', 'centre', 'mataram', 'kemarin', 'menga']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['syukur', 'lanjut', 'kaji', 'tafsir', 'bakda', 'jumat', 'masjid', 'hubbul', 'wathan', 'islamic', 'centre', 'mataram', 'kemarin', 'menga']</t>
         </is>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14073</v>
+        <v>30171</v>
       </c>
       <c r="C25" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['amin', 'ya', 'rabi', 'ericamajdi', 'allah', 'forgive', 'my', 'sins', 'and', 'the', 'sins', 'of', 'my', 'father', 'amp', 'mother', 'have', 'mercedes', 'on']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['aamiin', 'yaa', 'rabb', 'ericamajdi', 'alloh', 'forgive', 'my', 'sins', 'and', 'the', 'sins', 'of', 'my', 'father', 'mother', 'have', 'mercy', 'on']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['aamiin', 'yaa', 'rabb', 'ericamajdi', 'alloh', 'forgive', 'my', 'sins', 'and', 'the', 'sins', 'of', 'my', 'father', 'mother', 'have', 'mercy', 'on']</t>
+          <t>['amin', 'rabi', 'ericamajdi', 'allah', 'forgive', 'my', 'sins', 'and', 'the', 'sins', 'of', 'my', 'father', 'mother', 'have', 'mercedes', 'on']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['amin', 'rabi', 'ericamajdi', 'allah', 'forgive', 'my', 'sins', 'and', 'the', 'sins', 'of', 'my', 'father', 'mother', 'have', 'mercedes', 'on']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14074</v>
+        <v>30172</v>
       </c>
       <c r="C26" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['saling', 'belajar', 'dengan', 'para', 'alumni', 'alazhar', 'alahram', 'kiai', 'muda', 'serta', 'para', 'penggiat', 'jaringan', 'gus', 'dur', 'di', 'sumenep', 'sama']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['belajar', 'alumni', 'alazhar', 'alahram', 'kyai', 'muda', 'penggiat', 'jaringan', 'gus', 'dur', 'sumenep', 'ma']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['ajar', 'alumni', 'alazhar', 'alahram', 'kyai', 'muda', 'giat', 'jaring', 'gus', 'dur', 'sumenep', 'ma']</t>
+          <t>['belajar', 'alumni', 'alazhar', 'alahram', 'kiai', 'muda', 'penggiat', 'jaringan', 'gus', 'dur', 'sumenep']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['ajar', 'alumni', 'alazhar', 'alahram', 'kiai', 'muda', 'giat', 'jaring', 'gus', 'dur', 'sumenep']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14075</v>
+        <v>30173</v>
       </c>
       <c r="C27" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,17 +1522,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['di', 'pesisir', 'madura', 'tepatnya', 'kedungdung', 'bangkalan', 'pesantren', 'miftahul', 'ulum', 'di, bawah', 'asuhan', 'kh', 'ayub', 'mustofa', 'ikut', 'memb']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['pesisir', 'madura', 'tepatnya', 'kedungdung', 'bangkalan', 'pesantren', 'miftahul', 'ulum', 'dibawah', 'asuhan', 'kh', 'ayyub', 'mustofa', 'memb']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['pesisir', 'madura', 'tepat', 'kedungdung', 'bangkal', 'pesantren', 'miftahul', 'ulum', 'bawah', 'asuh', 'kh', 'ayyub', 'mustofa', 'memb']</t>
+          <t>['pesisir', 'madura', 'tepatnya', 'kedungdung', 'bangkalan', 'pesantren', 'miftahul', 'ulum', 'di, bawah', 'asuhan', 'kh', 'ayub', 'mustofa', 'memb']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['pesisir', 'madura', 'tepat', 'kedungdung', 'bangkal', 'pesantren', 'miftahul', 'ulum', 'di bawah', 'asuh', 'kh', 'ayub', 'mustofa', 'memb']</t>
         </is>
       </c>
     </row>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14076</v>
+        <v>30174</v>
       </c>
       <c r="C28" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,15 +1563,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['bicara', 'wisata', 'halal', 'jangan', 'terpikir', 'bahwa', 'ini', 'membatasi', 'wisata', 'halal', 'justru', 'adalah', 'kreasi', 'dan', 'segmen', 'baru', 'mengha']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['bicara', 'wisata', 'halal', 'terpikir', 'membatasi', 'wisata', 'halal', 'kreasi', 'segmen', 'mengha']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['bicara', 'wisata', 'halal', 'pikir', 'batas', 'wisata', 'halal', 'kreasi', 'segmen', 'mengha']</t>
         </is>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14077</v>
+        <v>30175</v>
       </c>
       <c r="C29" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,17 +1604,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['berjumpa', 'dan', 'berdiskusi', 'sejenak', 'dengan', 'rektor', 'universitas', 'trunojoyo', 'madura', 'utm', 'dari', 'syarif', 'pagi', 'ini', 'sebelum', 'me']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['berjumpa', 'berdiskusi', 'rektor', 'universitas', 'trunojoyo', 'madura', 'utm', 'dr', 'syarif', 'pagi', 'me']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['jumpa', 'diskus', 'rektor', 'universitas', 'trunojoyo', 'madura', 'utm', 'dr', 'syarif', 'pagi', 'me']</t>
+          <t>['berjumpa', 'berdiskusi', 'rektor', 'universitas', 'trunojoyo', 'madura', 'utm', 'syarif', 'pagi', 'me']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['jumpa', 'diskus', 'rektor', 'universitas', 'trunojoyo', 'madura', 'utm', 'syarif', 'pagi', 'me']</t>
         </is>
       </c>
     </row>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14078</v>
+        <v>30176</v>
       </c>
       <c r="C30" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,15 +1645,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['beliau', 'mengenalkan', 'diri', 'sebagai', 'hendri', 'pedagang', 'martabak', 'dari', 'pekanbaru', 'dua', 'hari', 'lalu', 'jumpa', 'usai', 'tawaf', 'sunah', 'di', 'pe']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['beliau', 'mengenalkan', 'hendri', 'pedagang', 'martabak', 'pekanbaru', 'jumpa', 'tawaf', 'sunah', 'pe']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['beliau', 'kenal', 'hendri', 'dagang', 'martabak', 'pekanbaru', 'jumpa', 'tawaf', 'sunah', 'pe']</t>
         </is>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14079</v>
+        <v>30177</v>
       </c>
       <c r="C31" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,17 +1686,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['kalimat', 'tauhid', 'adalah', 'persaksian', 'kita', 'di', 'dunia', 'dan', 'akhirat', 'padanya', 'ada', 'dua', 'asma', 'termulia', 'asma', 'allah', 'yang', 'kepadany']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['kalimat', 'tauhid', 'persaksian', 'dunia', 'akhirat', 'asma', 'termulia', 'asma', 'alloh', 'kepadany']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['kalimat', 'tauhid', 'saksi', 'dunia', 'akhirat', 'asma', 'mulia', 'asma', 'alloh', 'kepadany']</t>
+          <t>['kalimat', 'tauhid', 'persaksian', 'dunia', 'akhirat', 'asma', 'termulia', 'asma', 'allah', 'kepadany']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['kalimat', 'tauhid', 'saksi', 'dunia', 'akhirat', 'asma', 'mulia', 'asma', 'allah', 'kepadany']</t>
         </is>
       </c>
     </row>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14080</v>
+        <v>30178</v>
       </c>
       <c r="C32" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,15 +1727,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['perilaku', 'tercela', 'menggunakan', 'kalimat', 'tauhid', 'untuk', 'tujuan', 'kekuasaan', 'tidak', 'boleh', 'menyebabkan', 'kita', 'ikut', 'melakukan', 'perb']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>['perilaku', 'tercela', 'kalimat', 'tauhid', 'tujuan', 'kekuasaan', 'menyebabkan', 'perb']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['perilaku', 'cela', 'kalimat', 'tauhid', 'tuju', 'kuasa', 'sebab', 'perb']</t>
         </is>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14081</v>
+        <v>30179</v>
       </c>
       <c r="C33" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,17 +1768,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['namun', 'cinta', 'negara, kesatuan, republik, indonesia', 'adalah', 'satu', 'hal', 'sedangkan', 'membakar', 'bendera', 'yang', 'bertuliskan', 'kalimat', 'tauhid', 'adalah', 'hal', 'lain', 'bagi']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['cinta', 'nkri', 'membakar', 'bendera', 'bertuliskan', 'kalimat', 'tauhid']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['cinta', 'nkri', 'bakar', 'bendera', 'tulis', 'kalimat', 'tauhid']</t>
+          <t>['cinta', 'negara, kesatuan, republik, indonesia', 'membakar', 'bendera', 'bertuliskan', 'kalimat', 'tauhid']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['cinta', 'negara satu republik indonesia', 'bakar', 'bendera', 'tulis', 'kalimat', 'tauhid']</t>
         </is>
       </c>
     </row>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14082</v>
+        <v>30180</v>
       </c>
       <c r="C34" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,17 +1809,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['bagi', 'saya', 'negara, kesatuan, republik, indonesia', 'adalah', 'maslahat', 'nyata', 'sedangkan', 'khilafah', 'adalah', 'maslahat', 'prediktif', 'secara', 'kaidah', 'almaslahah', 'almutahaqqiq']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['nkri', 'adlh', 'maslahat', 'nyata', 'sdgkan', 'khilafah', 'adlh', 'maslahat', 'prediktif', 'scr', 'kaidah', 'almaslahah', 'almutahaqqiq']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['nkri', 'adlh', 'maslahat', 'nyata', 'sdgkan', 'khilafah', 'adlh', 'maslahat', 'prediktif', 'scr', 'kaidah', 'almaslahah', 'almutahaqqiq']</t>
+          <t>['negara, kesatuan, republik, indonesia', 'maslahat', 'nyata', 'khilafah', 'maslahat', 'prediktif', 'kaidah', 'almaslahah', 'almutahaqqiq']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['negara satu republik indonesia', 'maslahat', 'nyata', 'khilafah', 'maslahat', 'prediktif', 'kaidah', 'almaslahah', 'almutahaqqiq']</t>
         </is>
       </c>
     </row>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14083</v>
+        <v>30181</v>
       </c>
       <c r="C35" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,15 +1850,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['karena', 'nilainilai', 'dasar', 'yang', 'diperjuangkan', 'islam', 'telah', 'ada', 'utamanya', 'nilainilai', 'ketuhanan', 'kemanusiaan', 'persatuan']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['nilainilai', 'dasar', 'diperjuangkan', 'islam', 'utamanya', 'nilainilai', 'ketuhanan', 'kemanusiaan', 'persatuan']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['nilainilai', 'dasar', 'juang', 'islam', 'utama', 'nilainilai', 'tuhan', 'manusia', 'satu']</t>
         </is>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14084</v>
+        <v>30182</v>
       </c>
       <c r="C36" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,15 +1891,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['saya', 'meyakini', 'islam', 'tidak', 'memerintahkan', 'satu', 'sistem', 'pemerintahan', 'tertentu', 'namun', 'memberi', 'panduan', 'nilainilai', 'mulia']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['islam', 'memerintahkan', 'sistem', 'pemerintahan', 'panduan', 'nilainilai', 'mulia']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['islam', 'perintah', 'sistem', 'perintah', 'pandu', 'nilainilai', 'mulia']</t>
         </is>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14085</v>
+        <v>30183</v>
       </c>
       <c r="C37" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,17 +1932,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['saya', 'muslim', 'yang', 'cinta', 'negara, kesatuan, republik, indonesia', 'negara', 'bangsa', 'ini', 'bagi', 'saya', 'adalah', 'amanah', 'dari', 'allah', 'yang', 'wajib', 'dijaga', 'dan', 'dikokohkan']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['muslim', 'cinta', 'nkri', 'negara', 'bangsa', 'amanah', 'alloh', 'wajib', 'dijaga', 'dikokohkan']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['muslim', 'cinta', 'nkri', 'negara', 'bangsa', 'amanah', 'alloh', 'wajib', 'jaga', 'kokoh']</t>
+          <t>['muslim', 'cinta', 'negara, kesatuan, republik, indonesia', 'negara', 'bangsa', 'amanah', 'allah', 'wajib', 'dijaga', 'dikokohkan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['muslim', 'cinta', 'negara satu republik indonesia', 'negara', 'bangsa', 'amanah', 'allah', 'wajib', 'jaga', 'kokoh']</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14086</v>
+        <v>30184</v>
       </c>
       <c r="C38" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['hoaks', 'dan', 'fitnah', 'dua', 'ayat', 'dalam', 'alquran', 'tentang', 'pentingnya', 'tabayun', 'hatihati', 'dan', 'klarifikasi', 'cek', 'dan', 'kro']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['hoaks', 'fitnah', 'ayat', 'alquran', 'tabayyun', 'hatihati', 'klarifikasi', 'cek', 'kro']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['hoaks', 'fitnah', 'ayat', 'alquran', 'tabayyun', 'hatihati', 'klarifikasi', 'cek', 'kro']</t>
+          <t>['hoaks', 'fitnah', 'ayat', 'alquran', 'tabayun', 'hatihati', 'klarifikasi', 'cek', 'kro']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['hoaks', 'fitnah', 'ayat', 'alquran', 'tabayun', 'hatihati', 'klarifikasi', 'cek', 'kro']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14087</v>
+        <v>30185</v>
       </c>
       <c r="C39" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,17 +2014,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['usai', 'apel', 'hari', 'santri', 'hari', 'sabtu', 'kemarin', 'di', 'bontang', 'bersama', 'ibu', 'wali, kota', 'wakil', 'wali, kota', 'dan', 'pimpinan', 'dewan, perwakilan, rakyat, daerah', 'serta', 'pak']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['apel', 'santri', 'sabtu', 'kemarin', 'bontang', 'walikota', 'wakil', 'walikota', 'pimpinan', 'dprd', 'pa']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['apel', 'santri', 'sabtu', 'kemarin', 'bontang', 'walikota', 'wakil', 'walikota', 'pimpin', 'dprd', 'pa']</t>
+          <t>['apel', 'santri', 'sabtu', 'kemarin', 'bontang', 'wali, kota', 'wakil', 'wali, kota', 'pimpinan', 'dewan, perwakilan, rakyat, daerah']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['apel', 'santri', 'sabtu', 'kemarin', 'bontang', 'wali kota', 'wakil', 'wali kota', 'pimpin', 'dewan wakil rakyat daerah']</t>
         </is>
       </c>
     </row>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14088</v>
+        <v>30186</v>
       </c>
       <c r="C40" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['bersama', 'takmir', 'masjid', 'alkautsar', 'bontang', 'bakda', 'taklim', 'subuh', 'hari', 'ini', 'di', 'taklim', 'saya', 'sampaikan', 'kisah', 'dari', 'ras']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['takmir', 'masjid', 'alkautsar', 'bontang', 'bakda', 'taklim', 'subuh', 'taklim', 'kisah', 'ras']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['takmir', 'masjid', 'alkautsar', 'bontang', 'bakda', 'taklim', 'subuh', 'taklim', 'kisah', 'ras']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14089</v>
+        <v>30187</v>
       </c>
       <c r="C41" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,15 +2096,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['semalam', 'di', 'kilometer', 'karetan', 'jalur', 'samarindabontang', 'semangkuk', 'soto', 'bandung', 'segelas', 'bandrek', 'sepiring']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['semalam', 'kilometer', 'karetan', 'jalur', 'samarindabontang', 'semangkuk', 'soto', 'bandung', 'segelas', 'bandrek', 'sepiring']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['malam', 'kilometer', 'karet', 'jalur', 'samarindabontang', 'semangkuk', 'soto', 'bandung', 'gelas', 'bandrek', 'piring']</t>
         </is>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14090</v>
+        <v>30188</v>
       </c>
       <c r="C42" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,15 +2137,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['menjelang', 'subuh', 'hari', 'rabu', 'lalu', 'di', 'masjid', 'sayyidina', 'husein', 'di', 'kairo', 'dinamakan', 'demikian', 'karena', 'di', 'sini', 'makam', 'be']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['menjelang', 'subuh', 'rabu', 'masjid', 'sayyidina', 'husein', 'kairo', 'dinamakan', 'makam', 'be']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['jelang', 'subuh', 'rabu', 'masjid', 'sayyidina', 'husein', 'kairo', 'nama', 'makam', 'be']</t>
         </is>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14091</v>
+        <v>30189</v>
       </c>
       <c r="C43" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,15 +2178,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['bersama', 'ananda', 'muhammad', 'rifki', 'farabi', 'di', 'depan', 'pusat', 'pemantauan', 'dan', 'fatwa', 'elektronik', 'alazhar', 'di', 'kairo', 'pusat']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['ananda', 'muhammad', 'rifki', 'farabi', 'pusat', 'pemantauan', 'fatwa', 'elektronik', 'alazhar', 'kairo', 'pusat']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['ananda', 'muhammad', 'rifki', 'farabi', 'pusat', 'pantau', 'fatwa', 'elektronik', 'alazhar', 'kairo', 'pusat']</t>
         </is>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14092</v>
+        <v>30190</v>
       </c>
       <c r="C44" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,17 +2219,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['bersama', 'guru', 'saya', 'prof', 'dari', 'abdul', 'fadhil', 'alqushy', 'guru', 'besar', 'di', 'alazhar', 'dan', 'salah', 'seorang', 'tokoh', 'utama', 'asyariyyah']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['guru', 'prof', 'dr', 'abdul', 'fadhil', 'alqushy', 'guru', 'alazhar', 'salah', 'tokoh', 'utama', 'asyariyyah']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['guru', 'prof', 'dr', 'abdul', 'fadhil', 'alqushy', 'guru', 'alazhar', 'salah', 'tokoh', 'utama', 'asyariyyah']</t>
+          <t>['guru', 'prof', 'abdul', 'fadhil', 'alqushy', 'guru', 'alazhar', 'salah', 'tokoh', 'utama', 'asyariyyah']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['guru', 'prof', 'abdul', 'fadhil', 'alqushy', 'guru', 'alazhar', 'salah', 'tokoh', 'utama', 'asyariyyah']</t>
         </is>
       </c>
     </row>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14093</v>
+        <v>30191</v>
       </c>
       <c r="C45" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,17 +2260,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['dengan', 'getrepost', 'selamat', 'buat', 'santriwati', 'pondok', 'pesantren', 'nurul', 'haramain', 'nahdlatul', 'wathan', 'nw', 'bo']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['with', 'getrepost', 'selamat', 'santriwati', 'pondok', 'pesantren', 'nurul', 'haramain', 'nahdlatul', 'wathan', 'nw', 'bo']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['with', 'getrepost', 'selamat', 'santriwati', 'pondok', 'pesantren', 'nurul', 'haramain', 'nahdlatul', 'wathan', 'nw', 'bo']</t>
+          <t>['getrepost', 'selamat', 'santriwati', 'pondok', 'pesantren', 'nurul', 'haramain', 'nahdlatul', 'wathan', 'nw', 'bo']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['getrepost', 'selamat', 'santriwati', 'pondok', 'pesantren', 'nurul', 'haramain', 'nahdlatul', 'wathan', 'nw', 'bo']</t>
         </is>
       </c>
     </row>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14094</v>
+        <v>30192</v>
       </c>
       <c r="C46" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,15 +2301,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['ditemani', 'ananda', 'azzadiina', 'johara', 'semalam', 'saya', 'menghadiri', 'undangan', 'pertemuan', 'terbatas', 'bersama', 'habib', 'umar', 'bin', 'hafid']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>['ditemani', 'ananda', 'azzadiina', 'johara', 'semalam', 'menghadiri', 'undangan', 'pertemuan', 'terbatas', 'habib', 'umar', 'bin', 'hafid']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>['tani', 'ananda', 'azzadiina', 'johara', 'malam', 'hadir', 'undang', 'temu', 'batas', 'habib', 'umar', 'bin', 'hafid']</t>
         </is>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14095</v>
+        <v>30193</v>
       </c>
       <c r="C47" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,17 +2342,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['ability', 'itu', 'yang', 'tertulis', 'di, atas', 'plat', 'keemasan', 'dalam', 'kotak', 'yang', 'dibuka', 'presiden', 'jokowi', 'buang', 'pikiran', 'ba']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['ability', 'tertulis', 'diatas', 'plat', 'keemasan', 'kotak', 'dibuka', 'presiden', 'jokowi', 'buang', 'pikiran', 'ba']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['ability', 'tulis', 'atas', 'plat', 'emas', 'kotak', 'buka', 'presiden', 'jokowi', 'buang', 'pikir', 'ba']</t>
+          <t>['ability', 'tertulis', 'di, atas', 'plat', 'keemasan', 'kotak', 'dibuka', 'presiden', 'jokowi', 'buang', 'pikiran', 'ba']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['ability', 'tulis', 'di atas', 'plat', 'emas', 'kotak', 'buka', 'presiden', 'jokowi', 'buang', 'pikir', 'ba']</t>
         </is>
       </c>
     </row>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14096</v>
+        <v>30194</v>
       </c>
       <c r="C48" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,15 +2383,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['anakanak', 'korban', 'gempa', 'di', 'lombok', 'utara', 'mengirim', 'pesan', 'dahsyat', 'untuk', 'kita', 'semua', 'semangat', 'persaudaraan', 'tak', 'boleh', 'pad']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['anakanak', 'korban', 'gempa', 'lombok', 'utara', 'mengirim', 'pesan', 'dahsyat', 'semangat', 'persaudaraan', 'pad']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['anakanak', 'korban', 'gempa', 'lombok', 'utara', 'kirim', 'pesan', 'dahsyat', 'semangat', 'saudara', 'pad']</t>
         </is>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14097</v>
+        <v>30195</v>
       </c>
       <c r="C49" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,15 +2424,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['kemarin', 'gempa', 'besar', 'diikuti', 'tsunami', 'melanda', 'palu', 'donggala', 'dan', 'sekitarnya', 'mari', 'panjatkan', 'doa', 'terbaik', 'kita', 'semoga']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['kemarin', 'gempa', 'diikuti', 'tsunami', 'melanda', 'palu', 'donggala', 'mari', 'panjatkan', 'doa', 'terbaik', 'semoga']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['kemarin', 'gempa', 'ikut', 'tsunami', 'landa', 'palu', 'donggala', 'mari', 'panjat', 'doa', 'baik', 'moga']</t>
         </is>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14098</v>
+        <v>30196</v>
       </c>
       <c r="C50" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,17 +2465,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['guruku', 'yang', 'mulia', 'al, habib', 'umar', 'bin', 'muhammad', 'bin', 'salim', 'bin', 'hafiz', 'habibumar', 'ulama', 'panutan', 'dengan', 'ilmu', 'adab', 'dan']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['guruku', 'mulia', 'alhabib', 'umar', 'bin', 'muhammad', 'bin', 'salim', 'bin', 'hafidz', 'habibumar', 'ulama', 'panutan', 'ilmu', 'adab']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['guru', 'mulia', 'alhabib', 'umar', 'bin', 'muhammad', 'bin', 'salim', 'bin', 'hafidz', 'habibumar', 'ulama', 'panutan', 'ilmu', 'adab']</t>
+          <t>['guruku', 'mulia', 'al, habib', 'umar', 'bin', 'muhammad', 'bin', 'salim', 'bin', 'hafiz', 'habibumar', 'ulama', 'panutan', 'ilmu', 'adab']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['guru', 'mulia', 'al habib', 'umar', 'bin', 'muhammad', 'bin', 'salim', 'bin', 'hafiz', 'habibumar', 'ulama', 'panutan', 'ilmu', 'adab']</t>
         </is>
       </c>
     </row>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14099</v>
+        <v>30197</v>
       </c>
       <c r="C51" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,17 +2506,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['barang, siapa', 'ingin', 'dilapangkan', 'rezekinya', 'dan', 'dipanjangkan', 'umurnya', 'maka', 'hendaklah', 'bersilaturahim', 'demikian', 'hadis', 'sh']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['barangsiapa', 'dilapangkan', 'rezekinya', 'dipanjangkan', 'umurnya', 'bersilaturahim', 'hadis', 'sh']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['barangsiapa', 'lapang', 'rezeki', 'panjang', 'umur', 'bersilaturahim', 'hadis', 'sh']</t>
+          <t>['barang, siapa', 'dilapangkan', 'rezekinya', 'dipanjangkan', 'umurnya', 'bersilaturahim', 'hadis', 'sh']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['barang siapa', 'lapang', 'rezeki', 'panjang', 'umur', 'bersilaturahim', 'hadis', 'sh']</t>
         </is>
       </c>
     </row>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14100</v>
+        <v>30198</v>
       </c>
       <c r="C52" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,15 +2547,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['azhary', 'travels', 'partner', 'atp', 'wadah', 'para', 'sahabat', 'alumni', 'pemilik', 'travel', 'seratus', 'lebih', 'anggotanya', 'motto', 'mereka']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>['azhary', 'travels', 'partner', 'atp', 'wadah', 'sahabat', 'alumni', 'pemilik', 'travel', 'seratus', 'anggotanya', 'motto']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>['azhary', 'travels', 'partner', 'atp', 'wadah', 'sahabat', 'alumni', 'milik', 'travel', 'ratus', 'anggota', 'motto']</t>
         </is>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14101</v>
+        <v>30199</v>
       </c>
       <c r="C53" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,17 +2588,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['memenuhi', 'undangan', 'silaturahim', 'duta, besar', 'mesir', 'untuk', 'ri', 'bapak', 'amr', 'moawwad', 'di', 'dinding', 'penghubung', 'tangga', 'ini', 'terpampang']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['memenuhi', 'undangan', 'silaturahim', 'dubes', 'mesir', 'ri', 'amr', 'moawwad', 'dinding', 'penghubung', 'tangga', 'terpampang']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['penuh', 'undang', 'silaturahim', 'dubes', 'mesir', 'ri', 'amr', 'moawwad', 'dinding', 'hubung', 'tangga', 'pampang']</t>
+          <t>['memenuhi', 'undangan', 'silaturahim', 'duta, besar', 'mesir', 'ri', 'amr', 'moawwad', 'dinding', 'penghubung', 'tangga', 'terpampang']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['penuh', 'undang', 'silaturahim', 'duta besar', 'mesir', 'ri', 'amr', 'moawwad', 'dinding', 'hubung', 'tangga', 'pampang']</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14102</v>
+        <v>30200</v>
       </c>
       <c r="C54" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,15 +2629,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['berbagi', 'kebaikan', 'di', 'musyawarah', 'ulama', 'alquran', 'malam', 'ini', 'di', 'bogor', 'berada', 'ditengah', 'para', 'sahabat', 'pencinta', 'alquran', 'ba']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>['berbagi', 'kebaikan', 'musyawarah', 'ulama', 'alquran', 'malam', 'bogor', 'ditengah', 'sahabat', 'pencinta', 'alquran', 'ba']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>['bagi', 'baik', 'musyawarah', 'ulama', 'alquran', 'malam', 'bogor', 'tengah', 'sahabat', 'cinta', 'alquran', 'ba']</t>
         </is>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14103</v>
+        <v>30201</v>
       </c>
       <c r="C55" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,15 +2670,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['tentang', 'tgbnomics', 'oleh', 'seorang', 'sahabat', 'bapak', 'ikhwanul', 'kiram', 'wartawan', 'senior', 'republika', 'alhamdulillah', 'untuk', 'lengk']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>['tgbnomics', 'sahabat', 'ikhwanul', 'kiram', 'wartawan', 'senior', 'republika', 'alhamdulillah', 'lengk']</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>['tgbnomics', 'sahabat', 'ikhwanul', 'kiram', 'wartawan', 'senior', 'republika', 'alhamdulillah', 'lengk']</t>
         </is>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14104</v>
+        <v>30202</v>
       </c>
       <c r="C56" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,15 +2711,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['di', 'rumah', 'bapak', 'dahlan', 'iskan', 'bersama', 'gubernur', 'kaltara', 'bapak', 'lambrie', 'kami', 'diskusi', 'beragam', 'hal']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['rumah', 'dahlan', 'iskan', 'gubernur', 'kaltara', 'lambrie', 'diskusi', 'beragam']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['rumah', 'dahlan', 'iskan', 'gubernur', 'kaltara', 'lambrie', 'diskusi', 'agam']</t>
         </is>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14105</v>
+        <v>30203</v>
       </c>
       <c r="C57" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,15 +2752,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['selama', 'tahun', 'tentu', 'banyak', 'sekali', 'cobaan', 'dan', 'tantangan', 'yang', 'kita', 'hadapi', 'tetapi', 'alhamdulillah', 'semuanya', 'bisa', 'kita']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['cobaan', 'tantangan', 'hadapi', 'alhamdulillah']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['coba', 'tantang', 'hadap', 'alhamdulillah']</t>
         </is>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14106</v>
+        <v>30204</v>
       </c>
       <c r="C58" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,17 +2793,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'hari', 'ini', 'sepuluh', 'tahun', 'perkhidmatan', 'telah', 'tuntas', 'dengan', 'karunia', 'allah', 'yang', 'terbaik', 'telah', 'diikhtiar']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['alhamdulillah', 'sepuluh', 'perkhidmatan', 'tuntas', 'karunia', 'alloh', 'terbaik', 'diikhtiar']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'puluh', 'khidmat', 'tuntas', 'karunia', 'alloh', 'baik', 'ikhtiar']</t>
+          <t>['alhamdulillah', 'sepuluh', 'perkhidmatan', 'tuntas', 'karunia', 'allah', 'terbaik', 'diikhtiar']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'puluh', 'khidmat', 'tuntas', 'karunia', 'allah', 'baik', 'ikhtiar']</t>
         </is>
       </c>
     </row>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14107</v>
+        <v>30205</v>
       </c>
       <c r="C59" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,15 +2834,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'wasysyukrulillah', 'malam', 'penggalangan', 'dana', 'sekaligus', 'peluncuran', 'bukutgbnomics', 'berhasil', 'mengumpulkan']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'wasysyukrulillah', 'malam', 'penggalangan', 'dana', 'peluncuran', 'bukutgbnomics', 'berhasil', 'mengumpulkan']</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'wasysyukrulillah', 'malam', 'galang', 'dana', 'luncur', 'bukutgbnomics', 'hasil', 'kumpul']</t>
         </is>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14108</v>
+        <v>30206</v>
       </c>
       <c r="C60" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -2576,15 +2871,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2595,10 +2895,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14109</v>
+        <v>30207</v>
       </c>
       <c r="C61" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2612,17 +2912,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'hari', 'ini', 'bank', 'ntb', 'resmi', 'menjadi', 'bank', 'ntb', 'syariat', 'perjalanan', 'konversi', 'hampir', 'dua', 'tahun', 'telah', 'tuntas']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['alhamdulillah', 'bank', 'ntb', 'resmi', 'bank', 'ntb', 'syariah', 'perjalanan', 'konversi', 'tuntas']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'bank', 'ntb', 'resmi', 'bank', 'ntb', 'syariah', 'jalan', 'konversi', 'tuntas']</t>
+          <t>['alhamdulillah', 'bank', 'ntb', 'resmi', 'bank', 'ntb', 'syariat', 'perjalanan', 'konversi', 'tuntas']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'bank', 'ntb', 'resmi', 'bank', 'ntb', 'syariat', 'jalan', 'konversi', 'tuntas']</t>
         </is>
       </c>
     </row>
@@ -2631,10 +2936,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14110</v>
+        <v>30208</v>
       </c>
       <c r="C62" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2648,17 +2953,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['menyempatkan', 'berkunjung', 'ke', 'sampai', 'negeri', 'mataram', 'sebelum', 'bertolak', 'ke', 'sumbawa', 'senang', 'bertemu', 'dan', 'melihat', 'keceriaan']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['menyempatkan', 'berkunjung', 'smp', 'negeri', 'mataram', 'bertolak', 'sumbawa', 'senang', 'bertemu', 'keceriaan']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['sempat', 'kunjung', 'smp', 'negeri', 'mataram', 'tolak', 'sumbawa', 'senang', 'temu', 'ceria']</t>
+          <t>['menyempatkan', 'berkunjung', 'negeri', 'mataram', 'bertolak', 'sumbawa', 'senang', 'bertemu', 'keceriaan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['sempat', 'kunjung', 'negeri', 'mataram', 'tolak', 'sumbawa', 'senang', 'temu', 'ceria']</t>
         </is>
       </c>
     </row>
@@ -2667,10 +2977,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14111</v>
+        <v>30209</v>
       </c>
       <c r="C63" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2684,17 +2994,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['mengawali', 'agenda', 'kegiatan', 'hari', 'ini', 'dengan', 'apel', 'siaga', 'ntb', 'bangun', 'kembali', 'di', 'lapangan', 'gunung', 'sari', 'kabupaten', 'lombok', 'barat']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['mengawali', 'agenda', 'kegiatan', 'apel', 'siaga', 'ntb', 'bangun', 'lapangan', 'gunung', 'sari', 'kab', 'lombok', 'barat']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['awal', 'agenda', 'giat', 'apel', 'siaga', 'ntb', 'bangun', 'lapang', 'gunung', 'sari', 'kab', 'lombok', 'barat']</t>
+          <t>['mengawali', 'agenda', 'kegiatan', 'apel', 'siaga', 'ntb', 'bangun', 'lapangan', 'gunung', 'sari', 'kabupaten', 'lombok', 'barat']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['awal', 'agenda', 'giat', 'apel', 'siaga', 'ntb', 'bangun', 'lapang', 'gunung', 'sari', 'kabupaten', 'lombok', 'barat']</t>
         </is>
       </c>
     </row>
@@ -2703,10 +3018,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14112</v>
+        <v>30210</v>
       </c>
       <c r="C64" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2720,15 +3035,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['mendampingi', 'presiden', 'ri', 'dalam', 'prosesi', 'penyerahan', 'secara', 'simbolis', 'buku', 'tabungan', 'dana', 'bantuan', 'rekonstruksi', 'ru']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['mendampingi', 'presiden', 'ri', 'prosesi', 'penyerahan', 'simbolis', 'buku', 'tabungan', 'dana', 'bantuan', 'rekonstruksi', 'ru']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['damping', 'presiden', 'ri', 'prosesi', 'serah', 'simbolis', 'buku', 'tabung', 'dana', 'bantu', 'rekonstruksi', 'ru']</t>
         </is>
@@ -2739,10 +3059,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14113</v>
+        <v>30211</v>
       </c>
       <c r="C65" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2756,15 +3076,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['menyambut', 'kedatangan', 'presiden', 'ri', 'yang', 'kembali', 'berkunjung', 'dan', 'menemui', 'para', 'korban', 'gempa', 'di', 'ntb', 'pada', 'akhir', 'pe']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>['menyambut', 'kedatangan', 'presiden', 'ri', 'berkunjung', 'menemui', 'korban', 'gempa', 'ntb', 'pe']</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>['sambut', 'datang', 'presiden', 'ri', 'kunjung', 'temu', 'korban', 'gempa', 'ntb', 'pe']</t>
         </is>
@@ -2775,10 +3100,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14114</v>
+        <v>30212</v>
       </c>
       <c r="C66" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2792,15 +3117,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['regrann', 'from', 'terima', 'kasih', 'atas', 'kerja', 'keras', 'perjuangan', 'dan', 'pencapaian', 'prestasi', 'para', 'atlet', 'ntb', 'di', 'asian', 'tidak']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'terima', 'kasih', 'kerja', 'keras', 'perjuangan', 'pencapaian', 'prestasi', 'atlet', 'ntb', 'asian']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'terima', 'kasih', 'kerja', 'keras', 'juang', 'capai', 'prestasi', 'atlet', 'ntb', 'asi']</t>
         </is>
@@ -2811,10 +3141,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14115</v>
+        <v>30213</v>
       </c>
       <c r="C67" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2828,15 +3158,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['srikandi', 'ring', 'tinju', 'dari', 'kabupaten', 'sumbawa', 'barat', 'ntb', 'huswatun', 'hasanah', 'berhasil', 'menyumbangkan', 'medali', 'perunggu', 'dari']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['srikandi', 'ring', 'tinju', 'kabupaten', 'sumbawa', 'barat', 'ntb', 'huswatun', 'hasanah', 'berhasil', 'menyumbangkan', 'medali', 'perunggu']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['srikandi', 'ring', 'tinju', 'kabupaten', 'sumbawa', 'barat', 'ntb', 'huswatun', 'hasanah', 'hasil', 'sumbang', 'medali', 'perunggu']</t>
         </is>
@@ -2847,10 +3182,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14116</v>
+        <v>30214</v>
       </c>
       <c r="C68" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2864,17 +3199,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['dalam', 'perjalanan', 'menuju', 'lokasi', 'salat', 'jumat', 'di', 'desa', 'pemenang', 'sempat', 'menengok', 'proses', 'pembangunan', 'prototype', 'rumah, instan, sederhana, sehat']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['perjalanan', 'lokasi', 'shalat', 'jumat', 'desa', 'pemenang', 'menengok', 'proses', 'pembangunan', 'prototype', 'risha']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['jalan', 'lokasi', 'shalat', 'jumat', 'desa', 'menang', 'tengok', 'proses', 'bangun', 'prototype', 'risha']</t>
+          <t>['perjalanan', 'lokasi', 'salat', 'jumat', 'desa', 'pemenang', 'menengok', 'proses', 'pembangunan', 'prototype', 'rumah, instan, sederhana, sehat']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['jalan', 'lokasi', 'salat', 'jumat', 'desa', 'menang', 'tengok', 'proses', 'bangun', 'prototype', 'rumah instan sederhana sehat']</t>
         </is>
       </c>
     </row>
@@ -2883,10 +3223,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14117</v>
+        <v>30215</v>
       </c>
       <c r="C69" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2900,15 +3240,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['selamat', 'kepada', 'dua', 'atlet', 'ntb', 'fadlin', 'dan', 'lalu', 'muhammad', 'zohri', 'yang', 'tergabung', 'dalam', 'tim', 'lari', 'estafet', 'putra', 'in']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['selamat', 'atlet', 'ntb', 'fadlin', 'muhammad', 'zohri', 'tergabung', 'tim', 'lari', 'estafet', 'putra', 'in']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['selamat', 'atlet', 'ntb', 'fadlin', 'muhammad', 'zohri', 'gabung', 'tim', 'lari', 'estafet', 'putra', 'in']</t>
         </is>
@@ -2919,10 +3264,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14118</v>
+        <v>30216</v>
       </c>
       <c r="C70" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2936,15 +3281,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['ketika', 'musibah', 'itu', 'datang', 'kita', 'jangan', 'berat', 'mengulurkan', 'tangan', 'untuk', 'saling', 'membantu', 'apalagi', 'bagiinstitusi', 'yang']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['musibah', 'berat', 'mengulurkan', 'tangan', 'membantu', 'bagiinstitusi']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['musibah', 'berat', 'ulur', 'tangan', 'bantu', 'bagiinstitusi']</t>
         </is>
@@ -2955,10 +3305,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14119</v>
+        <v>30217</v>
       </c>
       <c r="C71" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2972,15 +3322,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['bersama', 'para', 'sahabat', 'fatih', 'seferagic', 'dian', 'pelangi', 'dan', 'rekan', 'dari', 'act']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['sahabat', 'fatih', 'seferagic', 'dian', 'pelangi', 'rekan', 'act']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['sahabat', 'fatih', 'seferagic', 'dian', 'pelangi', 'rekan', 'act']</t>
         </is>
@@ -2991,10 +3346,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14120</v>
+        <v>30218</v>
       </c>
       <c r="C72" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3008,15 +3363,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['pascamusibah', 'gempa', 'bumi', 'di', 'lombok', 'dan', 'sumbawa', 'banyak', 'akun', 'media', 'sosial', 'yang', 'begitu', 'masifmenyebar', 'berita', 'bohong', 'al']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['pascamusibah', 'gempa', 'bumi', 'lombok', 'sumbawa', 'akun', 'media', 'sosial', 'masifmenyebar', 'berita', 'bohong', 'al']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['pascamusibah', 'gempa', 'bumi', 'lombok', 'sumbawa', 'akun', 'media', 'sosial', 'masifmenyebar', 'berita', 'bohong', 'al']</t>
         </is>
@@ -3027,10 +3387,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14121</v>
+        <v>30219</v>
       </c>
       <c r="C73" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3044,15 +3404,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['menerima', 'langsung', 'sumbangan', 'dana', 'gotong', 'royong', 'dari', 'seluruh', 'staf', 'kementerian', 'dalam', 'negeri', 'ri', 'senilai', 'juta', 'rupia']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['menerima', 'langsung', 'sumbangan', 'dana', 'gotong', 'royong', 'staf', 'kementerian', 'negeri', 'ri', 'senilai', 'juta', 'rupia']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['terima', 'langsung', 'sumbang', 'dana', 'gotong', 'royong', 'staf', 'menteri', 'negeri', 'ri', 'nila', 'juta', 'rupia']</t>
         </is>
@@ -3063,10 +3428,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14122</v>
+        <v>30220</v>
       </c>
       <c r="C74" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3080,15 +3445,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['duet', 'dhita', 'juliana', 'dan', 'putu', 'dini', 'jasita', 'utami', 'dari', 'ntb', 'berhasil', 'menyumbangkan', 'medali', 'perunggu', 'untuk', 'indonesia', 'di', 'ca']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['duet', 'dhita', 'juliana', 'putu', 'jasita', 'utami', 'ntb', 'berhasil', 'menyumbangkan', 'medali', 'perunggu', 'indonesia', 'ca']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>['duet', 'dhita', 'juliana', 'putu', 'jasita', 'utami', 'ntb', 'hasil', 'sumbang', 'medali', 'perunggu', 'indonesia', 'ca']</t>
         </is>
@@ -3099,10 +3469,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14123</v>
+        <v>30221</v>
       </c>
       <c r="C75" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3116,17 +3486,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['mendampingi', 'ketua', 'majelis, permusyawaratan, rakyat', 'ri', 'bapak', 'zulkifli', 'hasan', 'hasan', 'meninjau', 'kawasan', 'terdampak', 'bencana', 'gempa', 'bumi', 'di', 'desa', 'keru']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['mendampingi', 'ketua', 'mpr', 'ri', 'zulkifli', 'hasan', 'hasan', 'meninjau', 'kawasan', 'terdampak', 'bencana', 'gempa', 'bumi', 'desa', 'keru']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['damping', 'ketua', 'mpr', 'ri', 'zulkifli', 'hasan', 'hasan', 'tinjau', 'kawasan', 'dampak', 'bencana', 'gempa', 'bumi', 'desa', 'keru']</t>
+          <t>['mendampingi', 'ketua', 'majelis, permusyawaratan, rakyat', 'ri', 'zulkifli', 'hasan', 'hasan', 'meninjau', 'kawasan', 'terdampak', 'bencana', 'gempa', 'bumi', 'desa', 'keru']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['damping', 'ketua', 'majelis musyawarat rakyat', 'ri', 'zulkifli', 'hasan', 'hasan', 'tinjau', 'kawasan', 'dampak', 'bencana', 'gempa', 'bumi', 'desa', 'keru']</t>
         </is>
       </c>
     </row>
@@ -3135,10 +3510,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14124</v>
+        <v>30222</v>
       </c>
       <c r="C76" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3152,15 +3527,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['deklarasi', 'ntb', 'bangun', 'kembali', 'di', 'kecamatan', 'pemenang', 'kabupaten', 'lombok', 'utara', 'di', 'awal', 'pekan', 'ini', 'melalui', 'apel', 'yang']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['deklarasi', 'ntb', 'bangun', 'kecamatan', 'pemenang', 'kabupaten', 'lombok', 'utara', 'pekan', 'apel']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['deklarasi', 'ntb', 'bangun', 'camat', 'menang', 'kabupaten', 'lombok', 'utara', 'pekan', 'apel']</t>
         </is>
@@ -3171,10 +3551,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14125</v>
+        <v>30223</v>
       </c>
       <c r="C77" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3188,15 +3568,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['melihat', 'langsung', 'aktivitas', 'masyarakat', 'di', 'pasar', 'tradisional', 'pemenang', 'di', 'kecamatan', 'pemenang', 'kabupaten', 'lombok', 'utara']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>['langsung', 'aktivitas', 'masyarakat', 'pasar', 'tradisional', 'pemenang', 'kecamatan', 'pemenang', 'kabupaten', 'lombok', 'utara']</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>['langsung', 'aktivitas', 'masyarakat', 'pasar', 'tradisional', 'menang', 'camat', 'menang', 'kabupaten', 'lombok', 'utara']</t>
         </is>
@@ -3207,10 +3592,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14126</v>
+        <v>30224</v>
       </c>
       <c r="C78" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3224,15 +3609,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['saat', 'mendampingi', 'menteri', 'perhubungan', 'ri', 'bapak', 'budi', 'karya', 'sumadi', 'budikaryas', 'dalam', 'kunjungan', 'kerja', 'ke', 'ntb', 'ahad', 'agu']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['mendampingi', 'menteri', 'perhubungan', 'ri', 'budi', 'karya', 'sumadi', 'budikaryas', 'kunjungan', 'kerja', 'ntb', 'ahad', 'agu']</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>['damping', 'menteri', 'hubung', 'ri', 'budi', 'karya', 'sumadi', 'budikaryas', 'kunjung', 'kerja', 'ntb', 'ahad', 'agu']</t>
         </is>
@@ -3243,10 +3633,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14127</v>
+        <v>30225</v>
       </c>
       <c r="C79" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3260,15 +3650,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['karateka', 'andalan', 'ntb', 'zigi', 'daresta', 'meraih', 'perunggu', 'untuk', 'indonesia', 'alhamdulillah', 'anak', 'muda', 'yang', 'hebat', 'dengan', 'mas']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>['karateka', 'andalan', 'ntb', 'zigi', 'daresta', 'meraih', 'perunggu', 'indonesia', 'alhamdulillah', 'anak', 'muda', 'hebat', 'mas']</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>['karateka', 'andal', 'ntb', 'zigi', 'daresta', 'raih', 'perunggu', 'indonesia', 'alhamdulillah', 'anak', 'muda', 'hebat', 'mas']</t>
         </is>
@@ -3279,10 +3674,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14128</v>
+        <v>30226</v>
       </c>
       <c r="C80" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3296,17 +3691,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['gusti', 'bhagus', 'saputra', 'putra', 'ntb', 'meraih', 'perak', 'di', 'cabang', 'bmx', 'asian', 'games', 'hanya', 'terpaut', 'detik', 'dari', 'peraih', 'emak']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['gusti', 'bhagus', 'saputra', 'putra', 'ntb', 'meraih', 'perak', 'cabang', 'bmx', 'asian', 'games', 'terpaut', 'detik', 'peraih', 'ema']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['gusti', 'bhagus', 'saputra', 'putra', 'ntb', 'raih', 'perak', 'cabang', 'bmx', 'asi', 'games', 'paut', 'detik', 'raih', 'ema']</t>
+          <t>['gusti', 'bhagus', 'saputra', 'putra', 'ntb', 'meraih', 'perak', 'cabang', 'bmx', 'asian', 'games', 'terpaut', 'detik', 'peraih', 'emak']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['gusti', 'bhagus', 'saputra', 'putra', 'ntb', 'raih', 'perak', 'cabang', 'bmx', 'asi', 'games', 'paut', 'detik', 'raih', 'emak']</t>
         </is>
       </c>
     </row>
@@ -3315,10 +3715,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14129</v>
+        <v>30227</v>
       </c>
       <c r="C81" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3332,15 +3732,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['regrann', 'from', 'menyapa', 'dan', 'bernyanyi', 'dengan', 'warga', 'terdampak', 'gempa', 'bumi', 'yang', 'mengungsi', 'di', 'halaman', 'kantor', 'gu']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'menyapa', 'bernyanyi', 'warga', 'terdampak', 'gempa', 'bumi', 'mengungsi', 'halaman', 'kantor', 'gu']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'sapa', 'nyanyi', 'warga', 'dampak', 'gempa', 'bumi', 'ungsi', 'halaman', 'kantor', 'gu']</t>
         </is>
@@ -3351,10 +3756,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14130</v>
+        <v>30228</v>
       </c>
       <c r="C82" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3368,17 +3773,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['regrann', 'from', 'presiden', 'ri', 'bapak', 'telah', 'menandatangani', 'instruksi', 'presiden', 'instruksi, presiden', 'tentang', 'penan']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['regrann', 'from', 'presiden', 'ri', 'menandatangani', 'instruksi', 'presiden', 'inpres', 'penan']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['regrann', 'from', 'presiden', 'ri', 'menandatangani', 'instruksi', 'presiden', 'inpres', 'pen']</t>
+          <t>['regrann', 'from', 'presiden', 'ri', 'menandatangani', 'instruksi', 'presiden', 'instruksi, presiden', 'penan']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['regrann', 'from', 'presiden', 'ri', 'menandatangani', 'instruksi', 'presiden', 'instruksi presiden', 'pen']</t>
         </is>
       </c>
     </row>
@@ -3387,10 +3797,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14131</v>
+        <v>30229</v>
       </c>
       <c r="C83" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3404,17 +3814,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['jelang', 'salat', 'taubah', 'doa', 'dan', 'zikir', 'bersama', 'di', 'lapangan', 'gunung', 'sari', 'lombok', 'barat']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['jelang', 'sholat', 'taubah', 'doa', 'dzikir', 'lapangan', 'gunung', 'sari', 'lombok', 'barat']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['jelang', 'sholat', 'taubah', 'doa', 'dzikir', 'lapang', 'gunung', 'sari', 'lombok', 'barat']</t>
+          <t>['jelang', 'salat', 'taubah', 'doa', 'zikir', 'lapangan', 'gunung', 'sari', 'lombok', 'barat']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['jelang', 'salat', 'taubah', 'doa', 'zikir', 'lapang', 'gunung', 'sari', 'lombok', 'barat']</t>
         </is>
       </c>
     </row>
@@ -3423,10 +3838,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14132</v>
+        <v>30230</v>
       </c>
       <c r="C84" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3440,17 +3855,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['di', 'kayangan', 'tempat', 'pengungsian', 'bakda', 'salat', 'idulfitri', 'sang', 'nenek', 'mengusap', 'bibir', 'cucunya', 'tercinta', 'dengan', 'lembut', 'penuh']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['kayangan', 'pengungsian', 'bakda', 'shalat', 'ied', 'sang', 'nenek', 'mengusap', 'bibir', 'cucunya', 'tercinta', 'lembut', 'penuh']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['kayangan', 'ungsi', 'bakda', 'shalat', 'ied', 'sang', 'nenek', 'usap', 'bibir', 'cucu', 'cinta', 'lembut', 'penuh']</t>
+          <t>['kayangan', 'pengungsian', 'bakda', 'salat', 'idulfitri', 'sang', 'nenek', 'mengusap', 'bibir', 'cucunya', 'tercinta', 'lembut', 'penuh']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['kayangan', 'ungsi', 'bakda', 'salat', 'idulfitri', 'sang', 'nenek', 'usap', 'bibir', 'cucu', 'cinta', 'lembut', 'penuh']</t>
         </is>
       </c>
     </row>
@@ -3459,10 +3879,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14133</v>
+        <v>30231</v>
       </c>
       <c r="C85" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3476,17 +3896,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['selalu', 'ada', 'orang', 'yang', 'senantiasa', 'memuji', 'asma', 'allah', 'di', 'dalam', 'setiap', 'keadaan', 'baik', 'atau', 'buruk', 'dalam', 'konteks', 'kita']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['orang', 'senantiasa', 'memuji', 'asma', 'alloh', 'buruk', 'konteks']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['orang', 'senantiasa', 'puji', 'asma', 'alloh', 'buruk', 'konteks']</t>
+          <t>['orang', 'senantiasa', 'memuji', 'asma', 'allah', 'buruk', 'konteks']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['orang', 'senantiasa', 'puji', 'asma', 'allah', 'buruk', 'konteks']</t>
         </is>
       </c>
     </row>
@@ -3495,10 +3920,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14134</v>
+        <v>30232</v>
       </c>
       <c r="C86" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3512,17 +3937,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['menyambut', 'dan', 'mendampingi', 'wakil', 'presiden', 'ri', 'bapak', 'hem', 'jusuf', 'kalla', 'dalam', 'kunjungan', 'kerja', 'ke', 'ntb', 'selain', 'mengunjungi']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['menyambut', 'mendampingi', 'wakil', 'presiden', 'ri', 'hm', 'jusuf', 'kalla', 'kunjungan', 'kerja', 'ntb', 'mengunjungi']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['sambut', 'damping', 'wakil', 'presiden', 'ri', 'hm', 'jusuf', 'kalla', 'kunjung', 'kerja', 'ntb', 'unjung']</t>
+          <t>['menyambut', 'mendampingi', 'wakil', 'presiden', 'ri', 'hem', 'jusuf', 'kalla', 'kunjungan', 'kerja', 'ntb', 'mengunjungi']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['sambut', 'damping', 'wakil', 'presiden', 'ri', 'hem', 'jusuf', 'kalla', 'kunjung', 'kerja', 'ntb', 'unjung']</t>
         </is>
       </c>
     </row>
@@ -3531,10 +3961,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14135</v>
+        <v>30233</v>
       </c>
       <c r="C87" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3548,15 +3978,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['mengunjungi', 'para', 'korban', 'terdampak', 'gempa', 'di', 'poskoposko', 'pengungsian', 'di', 'kawasan', 'sambelia', 'kabupaten', 'lombok', 'timur', 'me']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>['mengunjungi', 'korban', 'terdampak', 'gempa', 'poskoposko', 'pengungsian', 'kawasan', 'sambelia', 'kabupaten', 'lombok', 'timur', 'me']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>['unjung', 'korban', 'dampak', 'gempa', 'poskoposko', 'ungsi', 'kawasan', 'sambelia', 'kabupaten', 'lombok', 'timur', 'me']</t>
         </is>
@@ -3567,10 +4002,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14136</v>
+        <v>30234</v>
       </c>
       <c r="C88" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3584,15 +4019,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['mengecek', 'pelabuhan', 'kayangan', 'pelabuhan', 'utama', 'penghubung', 'lomboksumbawa', 'gempa', 'semalam', 'menyisakan', 'jejak', 'kerusakan']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['mengecek', 'pelabuhan', 'kayangan', 'pelabuhan', 'utama', 'penghubung', 'lomboksumbawa', 'gempa', 'semalam', 'menyisakan', 'jejak', 'kerusakan']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['ecek', 'labuh', 'kayangan', 'labuh', 'utama', 'hubung', 'lomboksumbawa', 'gempa', 'malam', 'sisa', 'jejak', 'rusa']</t>
         </is>
@@ -3603,10 +4043,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14137</v>
+        <v>30235</v>
       </c>
       <c r="C89" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3620,17 +4060,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['menjenguk', 'sekaligus', 'menyemangati', 'para', 'pasien', 'di', 'puskesmas', 'aikmel', 'kabupaten', 'lombok', 'timur', 'yang', 'dievakuasi', 'ke', 'tenda', 'darurat']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['menjenguk', 'menyemangati', 'pasien', 'puskesmas', 'aikmel', 'kab', 'lombok', 'timur', 'dievakuasi', 'tenda', 'darurat']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['jenguk', 'semangat', 'pasien', 'puskesmas', 'aikmel', 'kab', 'lombok', 'timur', 'evakuasi', 'tenda', 'darurat']</t>
+          <t>['menjenguk', 'menyemangati', 'pasien', 'puskesmas', 'aikmel', 'kabupaten', 'lombok', 'timur', 'dievakuasi', 'tenda', 'darurat']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['jenguk', 'semangat', 'pasien', 'puskesmas', 'aikmel', 'kabupaten', 'lombok', 'timur', 'evakuasi', 'tenda', 'darurat']</t>
         </is>
       </c>
     </row>
@@ -3639,10 +4084,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14138</v>
+        <v>30236</v>
       </c>
       <c r="C90" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3656,15 +4101,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['pagi', 'ini', 'pasar', 'tumpah', 'paokmotong', 'lombok', 'timur', 'ramai', 'berkah', 'lombok', 'insya', 'allah', 'telah', 'pulih']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>['pagi', 'pasar', 'tumpah', 'paokmotong', 'lombok', 'timur', 'ramai', 'berkah', 'lombok', 'insya', 'allah', 'pulih']</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>['pagi', 'pasar', 'tumpah', 'paokmotong', 'lombok', 'timur', 'ramai', 'berkah', 'lombok', 'insya', 'allah', 'pulih']</t>
         </is>
@@ -3675,10 +4125,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14139</v>
+        <v>30237</v>
       </c>
       <c r="C91" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3692,15 +4142,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['regrann', 'from', 'beberapa', 'hari', 'lalu', 'sempat', 'beredar', 'video', 'beberapa', 'warga', 'dusun', 'lendang', 'batu', 'desa', 'kayanga']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'beredar', 'video', 'warga', 'dusun', 'lendang', 'batu', 'desa', 'kayanga']</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'edar', 'video', 'warga', 'dusun', 'lendang', 'batu', 'desa', 'kayanga']</t>
         </is>
@@ -3711,10 +4166,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14140</v>
+        <v>30238</v>
       </c>
       <c r="C92" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3728,15 +4183,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['regrann', 'from', 'sehubungan', 'dengan', 'beredarnya', 'informasi', 'di', 'media', 'sosial', 'terkait', 'keterlambatan', 'penyaluran', 'ban']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'sehubungan', 'beredarnya', 'informasi', 'media', 'sosial', 'terkait', 'keterlambatan', 'penyaluran', 'ban']</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'hubung', 'edar', 'informasi', 'media', 'sosial', 'kait', 'lambat', 'salur', 'ban']</t>
         </is>
@@ -3747,10 +4207,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14141</v>
+        <v>30239</v>
       </c>
       <c r="C93" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3764,17 +4224,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['kami', 'semua', 'di', 'nusa', 'tenggara', 'barat', 'khususnya', 'di', 'lombok', 'insya', 'allah', 'hati', 'dan', 'jiwa', 'kami', 'penuh', 'dengan', 'optimisme', 'bahw']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['nusa', 'tenggara', 'barat', 'lombok', 'insya', 'alloh', 'hati', 'jiwa', 'penuh', 'optimisme', 'bahw']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['nusa', 'tenggara', 'barat', 'lombok', 'insya', 'alloh', 'hati', 'jiwa', 'penuh', 'optimisme', 'bahw']</t>
+          <t>['nusa', 'tenggara', 'barat', 'lombok', 'insya', 'allah', 'hati', 'jiwa', 'penuh', 'optimisme', 'bahw']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['nusa', 'tenggara', 'barat', 'lombok', 'insya', 'allah', 'hati', 'jiwa', 'penuh', 'optimisme', 'bahw']</t>
         </is>
       </c>
     </row>
@@ -3783,10 +4248,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14142</v>
+        <v>30240</v>
       </c>
       <c r="C94" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3800,15 +4265,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['regrann', 'from', 'terus', 'berjuang', 'kuatkan', 'motivasi', 'diri', 'untuk', 'selalu', 'berkontribusi', 'meneruskan', 'citacita', 'muli']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'berjuang', 'kuatkan', 'motivasi', 'berkontribusi', 'meneruskan', 'citacita', 'muli']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'juang', 'kuat', 'motivasi', 'kontribusi', 'terus', 'citacita', 'muli']</t>
         </is>
@@ -3819,10 +4289,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14143</v>
+        <v>30241</v>
       </c>
       <c r="C95" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
@@ -3832,15 +4302,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3851,10 +4326,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14144</v>
+        <v>30242</v>
       </c>
       <c r="C96" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3868,15 +4343,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['mengukuhkan', 'siswasiswi', 'dari', 'kabupatenkota', 'senusa', 'tenggara', 'barat', 'sebagai', 'pasukan', 'pengibar', 'bendera', 'pusaka', 'pask']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['mengukuhkan', 'siswasiswi', 'kabupatenkota', 'senusa', 'tenggara', 'barat', 'pasukan', 'pengibar', 'bendera', 'pusaka', 'pask']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['kukuh', 'siswasiswi', 'kabupatenkota', 'nusa', 'tenggara', 'barat', 'pasu', 'kibar', 'bendera', 'pusaka', 'pask']</t>
         </is>
@@ -3887,10 +4367,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14145</v>
+        <v>30243</v>
       </c>
       <c r="C97" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3904,17 +4384,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['menerima', 'kunjungan', 'wali, kota', 'bandung', 'sekaligus', 'gubernur', 'jawa', 'barat', 'terpilih', 'bapak', 'dan', 'juga', 'pemimpin', 'red']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['menerima', 'kunjungan', 'walikota', 'bandung', 'gubernur', 'jawa', 'barat', 'terpilih', 'pemimpin', 'red']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['terima', 'kunjung', 'walikota', 'bandung', 'gubernur', 'jawa', 'barat', 'pilih', 'pimpin', 'red']</t>
+          <t>['menerima', 'kunjungan', 'wali, kota', 'bandung', 'gubernur', 'jawa', 'barat', 'terpilih', 'pemimpin', 'red']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['terima', 'kunjung', 'wali kota', 'bandung', 'gubernur', 'jawa', 'barat', 'pilih', 'pimpin', 'red']</t>
         </is>
       </c>
     </row>
@@ -3923,10 +4408,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14146</v>
+        <v>30244</v>
       </c>
       <c r="C98" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3940,17 +4425,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['menggelar', 'rapat', 'terbatas', 'dengan', 'sejumlah', 'kepala', 'opd', 'lingkup', 'pemerintah, provinsi', 'ntb', 'untuk', 'membahas', 'sejumlah', 'langkah', 'pedoman', 'pe']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['menggelar', 'rapat', 'terbatas', 'kepala', 'opd', 'lingkup', 'pemprov', 'ntb', 'membahas', 'langkah', 'pedoman', 'pe']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['gelar', 'rapat', 'batas', 'kepala', 'opd', 'lingkup', 'pemprov', 'ntb', 'bahas', 'langkah', 'pedoman', 'pe']</t>
+          <t>['menggelar', 'rapat', 'terbatas', 'kepala', 'opd', 'lingkup', 'pemerintah, provinsi', 'ntb', 'membahas', 'langkah', 'pedoman', 'pe']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['gelar', 'rapat', 'batas', 'kepala', 'opd', 'lingkup', 'perintah provinsi', 'ntb', 'bahas', 'langkah', 'pedoman', 'pe']</t>
         </is>
       </c>
     </row>
@@ -3959,10 +4449,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14147</v>
+        <v>30245</v>
       </c>
       <c r="C99" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3976,15 +4466,20 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['regrann', 'from', 'pernyataan', 'resmi', 'mewakili', 'pemerintah', 'provinsi', 'nusa', 'tenggara', 'barat', 'setelah', 'dilakukan', 'pro']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'pernyataan', 'resmi', 'mewakili', 'pemerintah', 'provinsi', 'nusa', 'tenggara', 'barat', 'pro']</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>['regrann', 'from', 'nyata', 'resmi', 'wakil', 'perintah', 'provinsi', 'nusa', 'tenggara', 'barat', 'pro']</t>
         </is>
@@ -3995,10 +4490,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14148</v>
+        <v>30246</v>
       </c>
       <c r="C100" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4012,17 +4507,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['salat', 'maghrib', 'di', 'musala', 'darurat', 'ini', 'tidak', 'direncanakan', 'mulanya', 'dijadwal', 'beliau', 'presiden', 'mendengar', 'pak']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['shalat', 'maghrib', 'mushola', 'darurat', 'direncanakan', 'dijadwal', 'beliau', 'presiden', 'mendengar', 'pa']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['shalat', 'maghrib', 'mushola', 'darurat', 'rencana', 'jadwal', 'beliau', 'presiden', 'dengar', 'pa']</t>
+          <t>['salat', 'maghrib', 'musala', 'darurat', 'direncanakan', 'dijadwal', 'beliau', 'presiden', 'mendengar']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['salat', 'maghrib', 'musala', 'darurat', 'rencana', 'jadwal', 'beliau', 'presiden', 'dengar']</t>
         </is>
       </c>
     </row>
@@ -4031,10 +4531,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14149</v>
+        <v>30247</v>
       </c>
       <c r="C101" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4048,17 +4548,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['meninjau', 'para', 'pengungsi', 'di', 'dusun', 'terengan', 'desa', 'pemenang', 'timur', 'kecamatan', 'pemenang', 'kabupaten', 'lombok', 'utara', 'dengan', 'membonceng']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['meninjau', 'pengungsi', 'dusun', 'terengan', 'desa', 'pemenang', 'timur', 'kec', 'pemenang', 'kab', 'lombok', 'utara', 'membonceng']</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['tinjau', 'ungsi', 'dusun', 'reng', 'desa', 'menang', 'timur', 'kec', 'menang', 'kab', 'lombok', 'utara', 'bonceng']</t>
+          <t>['meninjau', 'pengungsi', 'dusun', 'terengan', 'desa', 'pemenang', 'timur', 'kecamatan', 'pemenang', 'kabupaten', 'lombok', 'utara', 'membonceng']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['tinjau', 'ungsi', 'dusun', 'reng', 'desa', 'menang', 'timur', 'camat', 'menang', 'kabupaten', 'lombok', 'utara', 'bonceng']</t>
         </is>
       </c>
     </row>
